--- a/inst/TRA2503_template.xlsx
+++ b/inst/TRA2503_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\virago.internal.dtlr.gov.uk\u\Lon1\LSHAW\My Documents\Temp Files (email attachments)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\virago.internal.dtlr.gov.uk\u\Lon1\LSHAW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,12 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="\0">[1]TABLE1a!$U$1:$U$7</definedName>
     <definedName name="\p">[1]TABLE1a!$P$1</definedName>
     <definedName name="\t" localSheetId="0">[1]TABLE1a!$U$3</definedName>
     <definedName name="\t">[1]TABLE1a!$U$3</definedName>
-    <definedName name="_1.2__Average_distance_travelled_by_mode_of_travel__1975_76__1985_86_and_1993_95" localSheetId="0">!#REF!</definedName>
-    <definedName name="_1.2__Average_distance_travelled_by_mode_of_travel__1975_76__1985_86_and_1993_95">!#REF!</definedName>
-    <definedName name="_1981" localSheetId="0">!#REF!</definedName>
-    <definedName name="_1981">!#REF!</definedName>
-    <definedName name="_tab13" localSheetId="0">!#REF!</definedName>
-    <definedName name="_tab13">!#REF!</definedName>
-    <definedName name="_tab14" localSheetId="0">!#REF!</definedName>
-    <definedName name="_tab14">!#REF!</definedName>
-    <definedName name="activeCell" localSheetId="0">!#REF!</definedName>
-    <definedName name="activeCell">!#REF!</definedName>
-    <definedName name="ALL">#N/A</definedName>
     <definedName name="ANNBELGIUM">[1]TABLE5!$D$5:$D$12</definedName>
     <definedName name="ANNDVR">[1]TABLE4AL!$D$6:$D$12</definedName>
     <definedName name="ANNENG">[1]TABLE4AL!$F$6:$F$12</definedName>
@@ -46,101 +34,29 @@
     <definedName name="ANNL">[1]TABLE5!$F$5:$F$12</definedName>
     <definedName name="ANNOTHER">[1]TABLE5!$J$5:$J$12</definedName>
     <definedName name="ANNSE">[1]TABLE4AL!$B$6:$B$12</definedName>
-    <definedName name="ANNUAL" localSheetId="0">!#REF!</definedName>
-    <definedName name="ANNUAL">!#REF!</definedName>
     <definedName name="ANNUK">[1]TABLE1a!$E$8:$E$14</definedName>
     <definedName name="ANNUT">[1]TABLE1a!$M$8:$M$14</definedName>
-    <definedName name="BARQTR" localSheetId="0">!#REF!</definedName>
-    <definedName name="BARQTR">!#REF!</definedName>
-    <definedName name="BELGIUM" localSheetId="0">!#REF!</definedName>
-    <definedName name="BELGIUM">!#REF!</definedName>
-    <definedName name="BULL">#N/A</definedName>
     <definedName name="CAMARA">[1]TABLE1a!$P$4</definedName>
-    <definedName name="CategoryTitle" localSheetId="0">!#REF!</definedName>
-    <definedName name="CategoryTitle">!#REF!</definedName>
+    <definedName name="Chart_data_AMV">!#REF!</definedName>
+    <definedName name="Chart_data_Cars">!#REF!</definedName>
+    <definedName name="Chart_data_HGVs">!#REF!</definedName>
+    <definedName name="Chart_data_LGVs">!#REF!</definedName>
     <definedName name="CLONE">[1]TABLE1a!$P$6</definedName>
-    <definedName name="DEFLATOR" localSheetId="0">!#REF!</definedName>
-    <definedName name="DEFLATOR">!#REF!</definedName>
-    <definedName name="dgdsfyh" localSheetId="0">!#REF!</definedName>
-    <definedName name="dgdsfyh">!#REF!</definedName>
-    <definedName name="DK" localSheetId="0">!#REF!</definedName>
-    <definedName name="DK">!#REF!</definedName>
-    <definedName name="DNK_D" localSheetId="0">!#REF!</definedName>
-    <definedName name="DNK_D">!#REF!</definedName>
-    <definedName name="DOVER">#N/A</definedName>
-    <definedName name="EIRE" localSheetId="0">!#REF!</definedName>
-    <definedName name="EIRE">!#REF!</definedName>
-    <definedName name="ENGLISH">#N/A</definedName>
-    <definedName name="fbegyear" localSheetId="0">!#REF!</definedName>
-    <definedName name="fbegyear">!#REF!</definedName>
     <definedName name="fendyear">[2]Year!$B$3</definedName>
-    <definedName name="FL" localSheetId="0">!#REF!</definedName>
-    <definedName name="FL">!#REF!</definedName>
-    <definedName name="Footnotes" localSheetId="0">!#REF!</definedName>
-    <definedName name="Footnotes">!#REF!</definedName>
     <definedName name="FOREIGN">[1]TABLE1a!$P$38:$P$52</definedName>
-    <definedName name="FRANCE" localSheetId="0">!#REF!</definedName>
-    <definedName name="FRANCE">!#REF!</definedName>
     <definedName name="fyear">[2]c11!$D$42</definedName>
-    <definedName name="GERMANY" localSheetId="0">!#REF!</definedName>
-    <definedName name="GERMANY">!#REF!</definedName>
-    <definedName name="GraphData">'[5]TIS-INDEX'!$B$13:$Q$44,'[5]TIS-INDEX'!$E$9:$R$9</definedName>
-    <definedName name="GraphTitle" localSheetId="0">!#REF!</definedName>
-    <definedName name="GraphTitle">!#REF!</definedName>
-    <definedName name="ITALY" localSheetId="0">!#REF!</definedName>
-    <definedName name="ITALY">!#REF!</definedName>
-    <definedName name="NLS" localSheetId="0">!#REF!</definedName>
-    <definedName name="NLS">!#REF!</definedName>
-    <definedName name="NONEC" localSheetId="0">!#REF!</definedName>
-    <definedName name="NONEC">!#REF!</definedName>
-    <definedName name="NORTHSEA">#N/A</definedName>
-    <definedName name="OldData" localSheetId="0">!#REF!</definedName>
-    <definedName name="OldData">!#REF!</definedName>
-    <definedName name="OTHER">#N/A</definedName>
-    <definedName name="OTHEREC" localSheetId="0">!#REF!</definedName>
-    <definedName name="OTHEREC">!#REF!</definedName>
-    <definedName name="PIE" localSheetId="0">!#REF!</definedName>
-    <definedName name="PIE">!#REF!</definedName>
-    <definedName name="PivotData">[3]pivot_data_for_chart!$A$4:$D$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area">!#REF!</definedName>
+    <definedName name="GraphData">'[3]TIS-INDEX'!$B$13:$Q$44,'[3]TIS-INDEX'!$E$9:$R$9</definedName>
+    <definedName name="LGV_data">!#REF!</definedName>
     <definedName name="Print_Area_MI">[1]TABLE1a!$A$1:$O$37</definedName>
-    <definedName name="PUBLISH_Print_Area" localSheetId="0">!#REF!</definedName>
-    <definedName name="PUBLISH_Print_Area">!#REF!</definedName>
-    <definedName name="PUBLISH1998_Print_Area" localSheetId="0">!#REF!</definedName>
-    <definedName name="PUBLISH1998_Print_Area">!#REF!</definedName>
-    <definedName name="qryNonEUBreakdown" localSheetId="0">!#REF!</definedName>
-    <definedName name="qryNonEUBreakdown">!#REF!</definedName>
-    <definedName name="QUARTER" localSheetId="0">!#REF!</definedName>
-    <definedName name="QUARTER">!#REF!</definedName>
-    <definedName name="SPAIN" localSheetId="0">!#REF!</definedName>
-    <definedName name="SPAIN">!#REF!</definedName>
     <definedName name="tab" localSheetId="0">[4]TABLE1a!$U$3</definedName>
     <definedName name="tab">[4]TABLE1a!$U$3</definedName>
-    <definedName name="TAB4ALL">#N/A</definedName>
-    <definedName name="TAB4PV">#N/A</definedName>
-    <definedName name="TAB4UT">#N/A</definedName>
-    <definedName name="TableTitle" localSheetId="0">!#REF!</definedName>
-    <definedName name="TableTitle">!#REF!</definedName>
-    <definedName name="testing" localSheetId="0">!#REF!</definedName>
-    <definedName name="testing">!#REF!</definedName>
-    <definedName name="UK">#N/A</definedName>
-    <definedName name="UT">#N/A</definedName>
-    <definedName name="ValueTitle" localSheetId="0">!#REF!</definedName>
-    <definedName name="ValueTitle">!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>TRA2503</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Source:</t>
   </si>
@@ -154,49 +70,7 @@
     <t>Next Update:</t>
   </si>
   <si>
-    <t>Contents:</t>
-  </si>
-  <si>
-    <t>TRA2503a</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1993 - not seasonally adjusted</t>
-  </si>
-  <si>
-    <t>TRA2503b</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1993 - rolling annual index numbers (not seasonally adjusted)</t>
-  </si>
-  <si>
-    <t>TRA2503c</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1993 - percentage change on previous year (not seasonally adjusted)</t>
-  </si>
-  <si>
-    <t>TRA2503d</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - seasonally adjusted</t>
-  </si>
-  <si>
-    <t>TRA2503e</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - not seasonally adjusted</t>
-  </si>
-  <si>
-    <t>TRA2503f</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - seasonally adjusted index numbers</t>
-  </si>
-  <si>
-    <t>TRA2503g</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - percentage change on same quarter in previous year (seasonally adjusted figures)</t>
+    <t>Contents</t>
   </si>
   <si>
     <t>Further information</t>
@@ -238,34 +112,51 @@
     <t>roadtraff.stats@dft.gsi.gov.uk</t>
   </si>
   <si>
-    <t>Provisional Road Traffic Estimates, Great Britain:</t>
+    <t>TRA2503</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1993 - not seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1993 - rolling annual index numbers (not seasonally adjusted)</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1993 - percentage change on previous year (not seasonally adjusted)</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - not seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - seasonally adjusted index numbers</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1993 - percentage change on same quarter in previous year (seasonally adjusted figures)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="[&gt;0.5]#,##0;[&lt;-0.5]&quot;-&quot;#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -276,9 +167,8 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -347,6 +237,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -371,66 +275,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Hyperlink 2" xfId="1"/>
+  <cellStyles count="8">
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal_TRA2501 2" xfId="4"/>
-    <cellStyle name="Normal_TRA9901 2" xfId="5"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
+    <cellStyle name="Normal_TRA2501" xfId="4"/>
+    <cellStyle name="Normal_TRA9901" xfId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,7 +359,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790571" cy="723903"/>
+    <xdr:ext cx="847721" cy="723903"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 1"/>
@@ -472,7 +377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4191003" y="142875"/>
-          <a:ext cx="790571" cy="723903"/>
+          <a:ext cx="847721" cy="723903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -495,7 +400,7 @@
     <xdr:ext cx="1542857" cy="1009525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -533,7 +438,7 @@
       <sheetName val="TABLE1a"/>
       <sheetName val="TABLE1b"/>
       <sheetName val="TABLE2"/>
-      <sheetName val="TABLE2cont__15"/>
+      <sheetName val="TABLE2cont__8"/>
       <sheetName val="TABLE3"/>
       <sheetName val="TABLE3a"/>
       <sheetName val="TABLE3b"/>
@@ -542,7 +447,7 @@
       <sheetName val="TABLE4b"/>
       <sheetName val="TABLE5"/>
       <sheetName val="Routes"/>
-      <sheetName val="FiguresSA_-do_not_print15"/>
+      <sheetName val="FiguresSA_-do_not_print8"/>
       <sheetName val="TABLE2cont__2"/>
       <sheetName val="FiguresSA_-do_not_print2"/>
       <sheetName val="TABLE2cont__"/>
@@ -559,16 +464,16 @@
       <sheetName val="FiguresSA_-do_not_print6"/>
       <sheetName val="TABLE2cont__7"/>
       <sheetName val="FiguresSA_-do_not_print7"/>
-      <sheetName val="TABLE2cont__8"/>
-      <sheetName val="FiguresSA_-do_not_print8"/>
-      <sheetName val="TABLE2cont__11"/>
-      <sheetName val="FiguresSA_-do_not_print11"/>
+      <sheetName val="TABLE2cont__12"/>
+      <sheetName val="FiguresSA_-do_not_print12"/>
       <sheetName val="TABLE2cont__10"/>
       <sheetName val="FiguresSA_-do_not_print10"/>
       <sheetName val="TABLE2cont__9"/>
       <sheetName val="FiguresSA_-do_not_print9"/>
-      <sheetName val="TABLE2cont__12"/>
-      <sheetName val="FiguresSA_-do_not_print12"/>
+      <sheetName val="TABLE2cont__11"/>
+      <sheetName val="FiguresSA_-do_not_print11"/>
+      <sheetName val="TABLE2cont__15"/>
+      <sheetName val="FiguresSA_-do_not_print15"/>
       <sheetName val="TABLE2cont__13"/>
       <sheetName val="FiguresSA_-do_not_print13"/>
       <sheetName val="TABLE2cont__14"/>
@@ -1568,10 +1473,10 @@
       <sheetName val="t14_time_series7"/>
       <sheetName val="t42_final7"/>
       <sheetName val="revised_Urban_Rural_data7"/>
-      <sheetName val="t13_09_(probs)14"/>
-      <sheetName val="t14_time_series14"/>
-      <sheetName val="t42_final14"/>
-      <sheetName val="revised_Urban_Rural_data14"/>
+      <sheetName val="t13_09_(probs)12"/>
+      <sheetName val="t14_time_series12"/>
+      <sheetName val="t42_final12"/>
+      <sheetName val="revised_Urban_Rural_data12"/>
       <sheetName val="t13_09_(probs)10"/>
       <sheetName val="t14_time_series10"/>
       <sheetName val="t42_final10"/>
@@ -1584,10 +1489,10 @@
       <sheetName val="t14_time_series11"/>
       <sheetName val="t42_final11"/>
       <sheetName val="revised_Urban_Rural_data11"/>
-      <sheetName val="t13_09_(probs)12"/>
-      <sheetName val="t14_time_series12"/>
-      <sheetName val="t42_final12"/>
-      <sheetName val="revised_Urban_Rural_data12"/>
+      <sheetName val="t13_09_(probs)14"/>
+      <sheetName val="t14_time_series14"/>
+      <sheetName val="t42_final14"/>
+      <sheetName val="revised_Urban_Rural_data14"/>
       <sheetName val="t13_09_(probs)13"/>
       <sheetName val="t14_time_series13"/>
       <sheetName val="t42_final13"/>
@@ -1709,246 +1614,1099 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Traffic_Data"/>
-      <sheetName val="GDP_Data"/>
-      <sheetName val="Fuel_prices"/>
-      <sheetName val="Chart_data_-_rolling_annual"/>
-      <sheetName val="Chart3_veh_type"/>
-      <sheetName val="Stats_Release_-_rolling_totals"/>
-      <sheetName val="Factsheet_chart_1"/>
-      <sheetName val="Factsheet_chart_2"/>
-      <sheetName val="Chart2_(2)"/>
-      <sheetName val="Chart_data"/>
-      <sheetName val="Rolling_total_Chart_data"/>
-      <sheetName val="Stats_Release_-_rolling_tot_(2"/>
-      <sheetName val="InDesign_values"/>
-      <sheetName val="Chart_4_by_road_type"/>
-      <sheetName val="Factsheet_chart_1_(2)"/>
-      <sheetName val="Stats_Release"/>
-      <sheetName val="Stat_Release_"/>
-      <sheetName val="pivot_data_for_chart"/>
-      <sheetName val="grouped_columns_2"/>
+      <sheetName val="TIS-INDEX"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>no</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Vehicle</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Road</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Value</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Cars</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>MW</v>
-          </cell>
-          <cell r="D5">
-            <v>49.780903336985972</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="E9">
+            <v>1983</v>
+          </cell>
+          <cell r="F9">
+            <v>1984</v>
+          </cell>
+          <cell r="G9">
+            <v>1985</v>
+          </cell>
+          <cell r="H9">
+            <v>1986</v>
+          </cell>
+          <cell r="I9">
+            <v>1987</v>
+          </cell>
+          <cell r="J9">
+            <v>1988</v>
+          </cell>
+          <cell r="K9">
+            <v>1989</v>
+          </cell>
+          <cell r="L9">
+            <v>1990</v>
+          </cell>
+          <cell r="M9">
+            <v>1991</v>
+          </cell>
+          <cell r="N9">
+            <v>1992</v>
+          </cell>
+          <cell r="O9">
+            <v>1993</v>
+          </cell>
+          <cell r="P9">
+            <v>1994</v>
+          </cell>
+          <cell r="Q9">
+            <v>1995</v>
+          </cell>
+          <cell r="R9">
+            <v>1996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Road 1</v>
+          </cell>
+          <cell r="E13">
+            <v>4.2</v>
+          </cell>
+          <cell r="F13">
+            <v>4</v>
+          </cell>
+          <cell r="G13">
+            <v>4.3</v>
+          </cell>
+          <cell r="H13">
+            <v>3.7</v>
+          </cell>
+          <cell r="I13">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="J13">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="K13">
+            <v>4.5</v>
+          </cell>
+          <cell r="L13">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="M13">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="N13">
+            <v>4.5</v>
+          </cell>
+          <cell r="O13">
+            <v>5</v>
+          </cell>
+          <cell r="P13">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="Q13">
+            <v>5.7</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v xml:space="preserve">Rail </v>
+          </cell>
+          <cell r="E14">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="F14">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="G14">
             <v>2</v>
           </cell>
-          <cell r="B6" t="str">
-            <v>Cars</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Rural A</v>
-          </cell>
-          <cell r="D6">
-            <v>72.56502219435977</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>3</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Cars</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Urban A</v>
-          </cell>
-          <cell r="D7">
-            <v>40.140174743854004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
+          <cell r="H14">
+            <v>2.1</v>
+          </cell>
+          <cell r="I14">
+            <v>2</v>
+          </cell>
+          <cell r="J14">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="K14">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="L14">
+            <v>2.1</v>
+          </cell>
+          <cell r="M14">
+            <v>2</v>
+          </cell>
+          <cell r="N14">
+            <v>2</v>
+          </cell>
+          <cell r="O14">
+            <v>1.91</v>
+          </cell>
+          <cell r="P14">
+            <v>1.8220000000000001</v>
+          </cell>
+          <cell r="Q14">
+            <v>1.7</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v xml:space="preserve">Water </v>
+          </cell>
+          <cell r="E15">
+            <v>51.4</v>
+          </cell>
+          <cell r="F15">
+            <v>53.1</v>
+          </cell>
+          <cell r="G15">
+            <v>50.9</v>
+          </cell>
+          <cell r="H15">
+            <v>46</v>
+          </cell>
+          <cell r="I15">
+            <v>43.9</v>
+          </cell>
+          <cell r="J15">
+            <v>49.3</v>
+          </cell>
+          <cell r="K15">
+            <v>47.9</v>
+          </cell>
+          <cell r="L15">
+            <v>45.4</v>
+          </cell>
+          <cell r="M15">
+            <v>46</v>
+          </cell>
+          <cell r="N15">
+            <v>42.7</v>
+          </cell>
+          <cell r="O15">
+            <v>41.7</v>
+          </cell>
+          <cell r="P15">
+            <v>43</v>
+          </cell>
+          <cell r="Q15">
+            <v>42.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>ow:  coastwise</v>
+          </cell>
+          <cell r="E16">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="F16">
+            <v>41</v>
+          </cell>
+          <cell r="G16">
+            <v>38.9</v>
+          </cell>
+          <cell r="H16">
+            <v>33.9</v>
+          </cell>
+          <cell r="I16">
+            <v>31.4</v>
+          </cell>
+          <cell r="J16">
+            <v>34.200000000000003</v>
+          </cell>
+          <cell r="K16">
+            <v>34.1</v>
+          </cell>
+          <cell r="L16">
+            <v>32.1</v>
+          </cell>
+          <cell r="M16">
+            <v>31.2</v>
+          </cell>
+          <cell r="N16">
+            <v>29.4</v>
+          </cell>
+          <cell r="O16">
+            <v>28.9</v>
+          </cell>
+          <cell r="P16">
+            <v>28.9</v>
+          </cell>
+          <cell r="Q16">
+            <v>31.4</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v xml:space="preserve">Pipeline </v>
+          </cell>
+          <cell r="H17">
+            <v>10.4</v>
+          </cell>
+          <cell r="I17">
+            <v>10.5</v>
+          </cell>
+          <cell r="J17">
+            <v>11.1</v>
+          </cell>
+          <cell r="K17">
+            <v>9.8000000000000007</v>
+          </cell>
+          <cell r="L17">
+            <v>11.1</v>
+          </cell>
+          <cell r="M17">
+            <v>11.1</v>
+          </cell>
+          <cell r="N17">
+            <v>11</v>
+          </cell>
+          <cell r="O17">
+            <v>11.6</v>
+          </cell>
+          <cell r="P17">
+            <v>12</v>
+          </cell>
+          <cell r="Q17">
+            <v>12.2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Pipeline</v>
+          </cell>
+          <cell r="E18">
+            <v>9.9</v>
+          </cell>
+          <cell r="F18">
+            <v>10.4</v>
+          </cell>
+          <cell r="G18">
+            <v>11.2</v>
+          </cell>
+          <cell r="H18">
+            <v>10.4</v>
+          </cell>
+          <cell r="I18">
+            <v>10.5</v>
+          </cell>
+          <cell r="J18">
+            <v>11.1</v>
+          </cell>
+          <cell r="K18">
+            <v>9.8000000000000007</v>
+          </cell>
+          <cell r="L18">
+            <v>11</v>
+          </cell>
+          <cell r="M18">
+            <v>11.1</v>
+          </cell>
+          <cell r="N18">
+            <v>11</v>
+          </cell>
+          <cell r="O18">
+            <v>11.6</v>
+          </cell>
+          <cell r="P18">
+            <v>12</v>
+          </cell>
+          <cell r="Q18">
+            <v>12.2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>All modes</v>
+          </cell>
+          <cell r="E19">
+            <v>67.8</v>
+          </cell>
+          <cell r="F19">
+            <v>69.7</v>
+          </cell>
+          <cell r="G19">
+            <v>68.400000000000006</v>
+          </cell>
+          <cell r="H19">
+            <v>62.2</v>
+          </cell>
+          <cell r="I19">
+            <v>60.5</v>
+          </cell>
+          <cell r="J19">
+            <v>67.5</v>
+          </cell>
+          <cell r="K19">
+            <v>64.400000000000006</v>
+          </cell>
+          <cell r="L19">
+            <v>63.5</v>
+          </cell>
+          <cell r="M19">
+            <v>64</v>
+          </cell>
+          <cell r="N19">
+            <v>60.2</v>
+          </cell>
+          <cell r="O19">
+            <v>60.21</v>
+          </cell>
+          <cell r="P19">
+            <v>61.921999999999997</v>
+          </cell>
+          <cell r="Q19">
+            <v>62.099999999999994</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Road 1</v>
+          </cell>
+          <cell r="E22">
+            <v>3.2</v>
+          </cell>
+          <cell r="F22">
+            <v>3.3</v>
+          </cell>
+          <cell r="G22">
+            <v>4.2</v>
+          </cell>
+          <cell r="H22">
+            <v>3.7</v>
+          </cell>
+          <cell r="I22">
+            <v>3.7</v>
+          </cell>
+          <cell r="J22">
+            <v>3.9</v>
+          </cell>
+          <cell r="K22">
             <v>4</v>
           </cell>
-          <cell r="B8" t="str">
-            <v>Cars</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Minor Rural</v>
-          </cell>
-          <cell r="D8">
-            <v>35.961697321382331</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
+          <cell r="L22">
+            <v>4.2</v>
+          </cell>
+          <cell r="M22">
+            <v>3.7</v>
+          </cell>
+          <cell r="N22">
+            <v>3.5</v>
+          </cell>
+          <cell r="O22">
+            <v>3.1</v>
+          </cell>
+          <cell r="P22">
+            <v>2.9</v>
+          </cell>
+          <cell r="Q22">
+            <v>2.7</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v xml:space="preserve">Rail </v>
+          </cell>
+          <cell r="E23">
+            <v>5.9</v>
+          </cell>
+          <cell r="F23">
+            <v>1.6</v>
+          </cell>
+          <cell r="G23">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="H23">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="I23">
+            <v>4.7</v>
+          </cell>
+          <cell r="J23">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="K23">
+            <v>4.8</v>
+          </cell>
+          <cell r="L23">
             <v>5</v>
           </cell>
-          <cell r="B9" t="str">
-            <v>Cars</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Minor Urban</v>
-          </cell>
-          <cell r="D9">
-            <v>55.059461025005447</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
+          <cell r="M23">
+            <v>5</v>
+          </cell>
+          <cell r="N23">
+            <v>5.4</v>
+          </cell>
+          <cell r="O23">
+            <v>3.9449999999999998</v>
+          </cell>
+          <cell r="P23">
+            <v>3.2719999999999998</v>
+          </cell>
+          <cell r="Q23">
+            <v>3.1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v xml:space="preserve">Water </v>
+          </cell>
+          <cell r="E24">
+            <v>3.8</v>
+          </cell>
+          <cell r="F24">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="G24">
+            <v>3.1</v>
+          </cell>
+          <cell r="H24">
+            <v>3.7</v>
+          </cell>
+          <cell r="I24">
+            <v>2.9</v>
+          </cell>
+          <cell r="J24">
+            <v>2.9</v>
+          </cell>
+          <cell r="K24">
+            <v>2.6</v>
+          </cell>
+          <cell r="L24">
+            <v>1.4</v>
+          </cell>
+          <cell r="M24">
+            <v>1.8</v>
+          </cell>
+          <cell r="N24">
+            <v>1.8</v>
+          </cell>
+          <cell r="O24">
+            <v>1.5</v>
+          </cell>
+          <cell r="P24">
+            <v>1.4</v>
+          </cell>
+          <cell r="Q24">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>All modes</v>
+          </cell>
+          <cell r="E25">
+            <v>12.900000000000002</v>
+          </cell>
+          <cell r="F25">
             <v>6</v>
           </cell>
-          <cell r="B10" t="str">
-            <v>LGVs</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>MW</v>
-          </cell>
-          <cell r="D10">
-            <v>10.064599707483032</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>7</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>LGVs</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Rural A</v>
-          </cell>
-          <cell r="D11">
-            <v>14.712234613600588</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
+          <cell r="G25">
+            <v>11.4</v>
+          </cell>
+          <cell r="H25">
+            <v>12.5</v>
+          </cell>
+          <cell r="I25">
+            <v>11.3</v>
+          </cell>
+          <cell r="J25">
+            <v>11.4</v>
+          </cell>
+          <cell r="K25">
+            <v>11.4</v>
+          </cell>
+          <cell r="L25">
+            <v>10.6</v>
+          </cell>
+          <cell r="M25">
+            <v>10.5</v>
+          </cell>
+          <cell r="N25">
+            <v>10.700000000000001</v>
+          </cell>
+          <cell r="O25">
+            <v>8.5449999999999999</v>
+          </cell>
+          <cell r="P25">
+            <v>7.5719999999999992</v>
+          </cell>
+          <cell r="Q25">
+            <v>7.6000000000000005</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Road 1</v>
+          </cell>
+          <cell r="E28">
+            <v>88.5</v>
+          </cell>
+          <cell r="F28">
+            <v>93.1</v>
+          </cell>
+          <cell r="G28">
+            <v>94.7</v>
+          </cell>
+          <cell r="H28">
+            <v>98</v>
+          </cell>
+          <cell r="I28">
+            <v>105.5</v>
+          </cell>
+          <cell r="J28">
+            <v>121.4</v>
+          </cell>
+          <cell r="K28">
+            <v>129.30000000000001</v>
+          </cell>
+          <cell r="L28">
+            <v>127.2</v>
+          </cell>
+          <cell r="M28">
+            <v>121.4</v>
+          </cell>
+          <cell r="N28">
+            <v>118.5</v>
+          </cell>
+          <cell r="O28">
+            <v>126.4</v>
+          </cell>
+          <cell r="P28">
+            <v>135.69999999999999</v>
+          </cell>
+          <cell r="Q28">
+            <v>141.19999999999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v xml:space="preserve">Rail </v>
+          </cell>
+          <cell r="E29">
+            <v>8.9</v>
+          </cell>
+          <cell r="F29">
+            <v>8.9</v>
+          </cell>
+          <cell r="G29">
+            <v>9.1999999999999993</v>
+          </cell>
+          <cell r="H29">
+            <v>9.4</v>
+          </cell>
+          <cell r="I29">
+            <v>10.6</v>
+          </cell>
+          <cell r="J29">
+            <v>11.4</v>
+          </cell>
+          <cell r="K29">
+            <v>10.3</v>
+          </cell>
+          <cell r="L29">
+            <v>8.6999999999999993</v>
+          </cell>
+          <cell r="M29">
+            <v>8.3000000000000007</v>
+          </cell>
+          <cell r="N29">
+            <v>8.1</v>
+          </cell>
+          <cell r="O29">
+            <v>7.91</v>
+          </cell>
+          <cell r="P29">
+            <v>7.8839999999999995</v>
+          </cell>
+          <cell r="Q29">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v xml:space="preserve">Water </v>
+          </cell>
+          <cell r="E30">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="F30">
+            <v>5.5</v>
+          </cell>
+          <cell r="G30">
+            <v>3.6</v>
+          </cell>
+          <cell r="H30">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="I30">
+            <v>7.3</v>
+          </cell>
+          <cell r="J30">
+            <v>7.1</v>
+          </cell>
+          <cell r="K30">
+            <v>7.4</v>
+          </cell>
+          <cell r="L30">
+            <v>8.6999999999999993</v>
+          </cell>
+          <cell r="M30">
+            <v>9.9</v>
+          </cell>
+          <cell r="N30">
+            <v>10.4</v>
+          </cell>
+          <cell r="O30">
             <v>8</v>
           </cell>
-          <cell r="B12" t="str">
-            <v>LGVs</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Urban A</v>
-          </cell>
-          <cell r="D12">
-            <v>6.7692545956066512</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>9</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>LGVs</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Minor Rural</v>
-          </cell>
-          <cell r="D13">
-            <v>8.6692397356697359</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>10</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>LGVs</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Minor Urban</v>
-          </cell>
-          <cell r="D14">
-            <v>9.585374617189089</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
+          <cell r="P30">
+            <v>7.8</v>
+          </cell>
+          <cell r="Q30">
+            <v>8.3000000000000007</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>All modes</v>
+          </cell>
+          <cell r="E31">
+            <v>102.5</v>
+          </cell>
+          <cell r="F31">
+            <v>107.5</v>
+          </cell>
+          <cell r="G31">
+            <v>107.5</v>
+          </cell>
+          <cell r="H31">
+            <v>112.5</v>
+          </cell>
+          <cell r="I31">
+            <v>123.39999999999999</v>
+          </cell>
+          <cell r="J31">
+            <v>139.9</v>
+          </cell>
+          <cell r="K31">
+            <v>147.00000000000003</v>
+          </cell>
+          <cell r="L31">
+            <v>144.6</v>
+          </cell>
+          <cell r="M31">
+            <v>139.60000000000002</v>
+          </cell>
+          <cell r="N31">
+            <v>137</v>
+          </cell>
+          <cell r="O31">
+            <v>142.31</v>
+          </cell>
+          <cell r="P31">
+            <v>151.38399999999999</v>
+          </cell>
+          <cell r="Q31">
+            <v>158</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Road 1</v>
+          </cell>
+          <cell r="E34">
+            <v>95.9</v>
+          </cell>
+          <cell r="F34">
+            <v>100.39999999999999</v>
+          </cell>
+          <cell r="G34">
+            <v>103.2</v>
+          </cell>
+          <cell r="H34">
+            <v>105.4</v>
+          </cell>
+          <cell r="I34">
+            <v>113.3</v>
+          </cell>
+          <cell r="J34">
+            <v>130.20000000000002</v>
+          </cell>
+          <cell r="K34">
+            <v>137.80000000000001</v>
+          </cell>
+          <cell r="L34">
+            <v>136.30000000000001</v>
+          </cell>
+          <cell r="M34">
+            <v>130</v>
+          </cell>
+          <cell r="N34">
+            <v>126.5</v>
+          </cell>
+          <cell r="O34">
+            <v>134.5</v>
+          </cell>
+          <cell r="P34">
+            <v>143.69999999999999</v>
+          </cell>
+          <cell r="Q34">
+            <v>149.6</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v xml:space="preserve">Rail </v>
+          </cell>
+          <cell r="E35">
+            <v>17.100000000000001</v>
+          </cell>
+          <cell r="F35">
+            <v>12.700000000000001</v>
+          </cell>
+          <cell r="G35">
+            <v>15.299999999999999</v>
+          </cell>
+          <cell r="H35">
+            <v>16.600000000000001</v>
+          </cell>
+          <cell r="I35">
+            <v>17.3</v>
+          </cell>
+          <cell r="J35">
+            <v>18.2</v>
+          </cell>
+          <cell r="K35">
+            <v>17.3</v>
+          </cell>
+          <cell r="L35">
+            <v>15.799999999999999</v>
+          </cell>
+          <cell r="M35">
+            <v>15.3</v>
+          </cell>
+          <cell r="N35">
+            <v>15.5</v>
+          </cell>
+          <cell r="O35">
+            <v>13.765000000000001</v>
+          </cell>
+          <cell r="P35">
+            <v>12.977999999999998</v>
+          </cell>
+          <cell r="Q35">
+            <v>13.3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v xml:space="preserve">Water </v>
+          </cell>
+          <cell r="E36">
+            <v>60.3</v>
+          </cell>
+          <cell r="F36">
+            <v>59.7</v>
+          </cell>
+          <cell r="G36">
+            <v>57.6</v>
+          </cell>
+          <cell r="H36">
+            <v>54.800000000000004</v>
+          </cell>
+          <cell r="I36">
+            <v>54.099999999999994</v>
+          </cell>
+          <cell r="J36">
+            <v>59.3</v>
+          </cell>
+          <cell r="K36">
+            <v>57.9</v>
+          </cell>
+          <cell r="L36">
+            <v>55.7</v>
+          </cell>
+          <cell r="M36">
+            <v>57.699999999999996</v>
+          </cell>
+          <cell r="N36">
+            <v>54.900000000000006</v>
+          </cell>
+          <cell r="O36">
+            <v>51.2</v>
+          </cell>
+          <cell r="P36">
+            <v>52.2</v>
+          </cell>
+          <cell r="Q36">
+            <v>52.6</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v xml:space="preserve">Pipeline </v>
+          </cell>
+          <cell r="E37">
+            <v>9.9</v>
+          </cell>
+          <cell r="F37">
+            <v>10.4</v>
+          </cell>
+          <cell r="G37">
+            <v>11.2</v>
+          </cell>
+          <cell r="H37">
+            <v>10.4</v>
+          </cell>
+          <cell r="I37">
+            <v>10.5</v>
+          </cell>
+          <cell r="J37">
+            <v>11.1</v>
+          </cell>
+          <cell r="K37">
+            <v>9.8000000000000007</v>
+          </cell>
+          <cell r="L37">
             <v>11</v>
           </cell>
-          <cell r="B15" t="str">
-            <v>HGV</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>MW</v>
-          </cell>
-          <cell r="D15">
-            <v>7.6568936731340784</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
+          <cell r="M37">
+            <v>11.1</v>
+          </cell>
+          <cell r="N37">
+            <v>11</v>
+          </cell>
+          <cell r="O37">
+            <v>11.6</v>
+          </cell>
+          <cell r="P37">
             <v>12</v>
           </cell>
-          <cell r="B16" t="str">
-            <v>HGV</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Rural A</v>
-          </cell>
-          <cell r="D16">
-            <v>6.0218415202088078</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>13</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>HGV</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Urban A</v>
-          </cell>
-          <cell r="D17">
-            <v>1.5204441344933384</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Cars</v>
+          <cell r="Q37">
+            <v>12.2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v xml:space="preserve">All modes </v>
+          </cell>
+          <cell r="E38">
+            <v>183.20000000000002</v>
+          </cell>
+          <cell r="F38">
+            <v>183.20000000000002</v>
+          </cell>
+          <cell r="G38">
+            <v>187.29999999999998</v>
+          </cell>
+          <cell r="H38">
+            <v>187.20000000000002</v>
+          </cell>
+          <cell r="I38">
+            <v>195.2</v>
+          </cell>
+          <cell r="J38">
+            <v>218.79999999999998</v>
+          </cell>
+          <cell r="K38">
+            <v>222.80000000000004</v>
+          </cell>
+          <cell r="L38">
+            <v>218.8</v>
+          </cell>
+          <cell r="M38">
+            <v>214.1</v>
+          </cell>
+          <cell r="N38">
+            <v>207.9</v>
+          </cell>
+          <cell r="O38">
+            <v>211.06499999999997</v>
+          </cell>
+          <cell r="P38">
+            <v>220.87799999999999</v>
+          </cell>
+          <cell r="Q38">
+            <v>227.7</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Road 1</v>
+          </cell>
+          <cell r="E41">
+            <v>52.3471615720524</v>
+          </cell>
+          <cell r="F41">
+            <v>54.803493449781648</v>
+          </cell>
+          <cell r="G41">
+            <v>55.098772023491726</v>
+          </cell>
+          <cell r="H41">
+            <v>56.303418803418801</v>
+          </cell>
+          <cell r="I41">
+            <v>58.043032786885249</v>
+          </cell>
+          <cell r="J41">
+            <v>59.506398537477153</v>
+          </cell>
+          <cell r="K41">
+            <v>61.849192100538595</v>
+          </cell>
+          <cell r="L41">
+            <v>62.294332723948806</v>
+          </cell>
+          <cell r="M41">
+            <v>60.719290051377861</v>
+          </cell>
+          <cell r="N41">
+            <v>60.846560846560848</v>
+          </cell>
+          <cell r="O41">
+            <v>63.724445076161388</v>
+          </cell>
+          <cell r="P41">
+            <v>65.058539103034249</v>
+          </cell>
+          <cell r="Q41">
+            <v>65.700483091787447</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v xml:space="preserve">Rail </v>
+          </cell>
+          <cell r="E42">
+            <v>9.3340611353711793</v>
+          </cell>
+          <cell r="F42">
+            <v>6.9323144104803491</v>
+          </cell>
+          <cell r="G42">
+            <v>8.1687132941804581</v>
+          </cell>
+          <cell r="H42">
+            <v>8.867521367521368</v>
+          </cell>
+          <cell r="I42">
+            <v>8.8627049180327884</v>
+          </cell>
+          <cell r="J42">
+            <v>8.3180987202925056</v>
+          </cell>
+          <cell r="K42">
+            <v>7.7648114901256724</v>
+          </cell>
+          <cell r="L42">
+            <v>7.221206581352833</v>
+          </cell>
+          <cell r="M42">
+            <v>7.1461933675852407</v>
+          </cell>
+          <cell r="N42">
+            <v>7.4555074555074556</v>
+          </cell>
+          <cell r="O42">
+            <v>6.5216876317722035</v>
+          </cell>
+          <cell r="P42">
+            <v>5.8756417569880197</v>
+          </cell>
+          <cell r="Q42">
+            <v>5.8410188844971467</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v xml:space="preserve">Water </v>
+          </cell>
+          <cell r="E43">
+            <v>32.914847161572048</v>
+          </cell>
+          <cell r="F43">
+            <v>32.587336244541483</v>
+          </cell>
+          <cell r="G43">
+            <v>30.752802989855848</v>
+          </cell>
+          <cell r="H43">
+            <v>29.273504273504276</v>
+          </cell>
+          <cell r="I43">
+            <v>27.715163934426229</v>
+          </cell>
+          <cell r="J43">
+            <v>27.102376599634368</v>
+          </cell>
+          <cell r="K43">
+            <v>25.987432675044879</v>
+          </cell>
+          <cell r="L43">
+            <v>25.457038391224863</v>
+          </cell>
+          <cell r="M43">
+            <v>26.950023353573094</v>
+          </cell>
+          <cell r="N43">
+            <v>26.406926406926406</v>
+          </cell>
+          <cell r="O43">
+            <v>24.257930021557346</v>
+          </cell>
+          <cell r="P43">
+            <v>23.632955749327685</v>
+          </cell>
+          <cell r="Q43">
+            <v>23.100570926657884</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Pipeline</v>
+          </cell>
+          <cell r="E44">
+            <v>5.4039301310043664</v>
+          </cell>
+          <cell r="F44">
+            <v>5.676855895196506</v>
+          </cell>
+          <cell r="G44">
+            <v>5.9797116924719704</v>
+          </cell>
+          <cell r="H44">
+            <v>5.5555555555555554</v>
+          </cell>
+          <cell r="I44">
+            <v>5.3790983606557381</v>
+          </cell>
+          <cell r="J44">
+            <v>5.0731261425959779</v>
+          </cell>
+          <cell r="K44">
+            <v>4.3985637342908435</v>
+          </cell>
+          <cell r="L44">
+            <v>5.0274223034734913</v>
+          </cell>
+          <cell r="M44">
+            <v>5.1844932274638014</v>
+          </cell>
+          <cell r="N44">
+            <v>5.2910052910052912</v>
+          </cell>
+          <cell r="O44">
+            <v>5.495937270509085</v>
+          </cell>
+          <cell r="P44">
+            <v>5.4328633906500423</v>
+          </cell>
+          <cell r="Q44">
+            <v>5.3579270970575319</v>
           </cell>
         </row>
       </sheetData>
@@ -1985,1111 +2743,6 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TIS-INDEX"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="E9">
-            <v>1983</v>
-          </cell>
-          <cell r="F9">
-            <v>1984</v>
-          </cell>
-          <cell r="G9">
-            <v>1985</v>
-          </cell>
-          <cell r="H9">
-            <v>1986</v>
-          </cell>
-          <cell r="I9">
-            <v>1987</v>
-          </cell>
-          <cell r="J9">
-            <v>1988</v>
-          </cell>
-          <cell r="K9">
-            <v>1989</v>
-          </cell>
-          <cell r="L9">
-            <v>1990</v>
-          </cell>
-          <cell r="M9">
-            <v>1991</v>
-          </cell>
-          <cell r="N9">
-            <v>1992</v>
-          </cell>
-          <cell r="O9">
-            <v>1993</v>
-          </cell>
-          <cell r="P9">
-            <v>1994</v>
-          </cell>
-          <cell r="Q9">
-            <v>1995</v>
-          </cell>
-          <cell r="R9">
-            <v>1996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Road 1</v>
-          </cell>
-          <cell r="E13">
-            <v>4.2</v>
-          </cell>
-          <cell r="F13">
-            <v>4</v>
-          </cell>
-          <cell r="G13">
-            <v>4.3</v>
-          </cell>
-          <cell r="H13">
-            <v>3.7</v>
-          </cell>
-          <cell r="I13">
-            <v>4.0999999999999996</v>
-          </cell>
-          <cell r="J13">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="K13">
-            <v>4.5</v>
-          </cell>
-          <cell r="L13">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="M13">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="N13">
-            <v>4.5</v>
-          </cell>
-          <cell r="O13">
-            <v>5</v>
-          </cell>
-          <cell r="P13">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="Q13">
-            <v>5.7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v xml:space="preserve">Rail </v>
-          </cell>
-          <cell r="E14">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="F14">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="G14">
-            <v>2</v>
-          </cell>
-          <cell r="H14">
-            <v>2.1</v>
-          </cell>
-          <cell r="I14">
-            <v>2</v>
-          </cell>
-          <cell r="J14">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="K14">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="L14">
-            <v>2.1</v>
-          </cell>
-          <cell r="M14">
-            <v>2</v>
-          </cell>
-          <cell r="N14">
-            <v>2</v>
-          </cell>
-          <cell r="O14">
-            <v>1.91</v>
-          </cell>
-          <cell r="P14">
-            <v>1.8220000000000001</v>
-          </cell>
-          <cell r="Q14">
-            <v>1.7</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v xml:space="preserve">Water </v>
-          </cell>
-          <cell r="E15">
-            <v>51.4</v>
-          </cell>
-          <cell r="F15">
-            <v>53.1</v>
-          </cell>
-          <cell r="G15">
-            <v>50.9</v>
-          </cell>
-          <cell r="H15">
-            <v>46</v>
-          </cell>
-          <cell r="I15">
-            <v>43.9</v>
-          </cell>
-          <cell r="J15">
-            <v>49.3</v>
-          </cell>
-          <cell r="K15">
-            <v>47.9</v>
-          </cell>
-          <cell r="L15">
-            <v>45.4</v>
-          </cell>
-          <cell r="M15">
-            <v>46</v>
-          </cell>
-          <cell r="N15">
-            <v>42.7</v>
-          </cell>
-          <cell r="O15">
-            <v>41.7</v>
-          </cell>
-          <cell r="P15">
-            <v>43</v>
-          </cell>
-          <cell r="Q15">
-            <v>42.5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>ow:  coastwise</v>
-          </cell>
-          <cell r="E16">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="F16">
-            <v>41</v>
-          </cell>
-          <cell r="G16">
-            <v>38.9</v>
-          </cell>
-          <cell r="H16">
-            <v>33.9</v>
-          </cell>
-          <cell r="I16">
-            <v>31.4</v>
-          </cell>
-          <cell r="J16">
-            <v>34.200000000000003</v>
-          </cell>
-          <cell r="K16">
-            <v>34.1</v>
-          </cell>
-          <cell r="L16">
-            <v>32.1</v>
-          </cell>
-          <cell r="M16">
-            <v>31.2</v>
-          </cell>
-          <cell r="N16">
-            <v>29.4</v>
-          </cell>
-          <cell r="O16">
-            <v>28.9</v>
-          </cell>
-          <cell r="P16">
-            <v>28.9</v>
-          </cell>
-          <cell r="Q16">
-            <v>31.4</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v xml:space="preserve">Pipeline </v>
-          </cell>
-          <cell r="H17">
-            <v>10.4</v>
-          </cell>
-          <cell r="I17">
-            <v>10.5</v>
-          </cell>
-          <cell r="J17">
-            <v>11.1</v>
-          </cell>
-          <cell r="K17">
-            <v>9.8000000000000007</v>
-          </cell>
-          <cell r="L17">
-            <v>11.1</v>
-          </cell>
-          <cell r="M17">
-            <v>11.1</v>
-          </cell>
-          <cell r="N17">
-            <v>11</v>
-          </cell>
-          <cell r="O17">
-            <v>11.6</v>
-          </cell>
-          <cell r="P17">
-            <v>12</v>
-          </cell>
-          <cell r="Q17">
-            <v>12.2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Pipeline</v>
-          </cell>
-          <cell r="E18">
-            <v>9.9</v>
-          </cell>
-          <cell r="F18">
-            <v>10.4</v>
-          </cell>
-          <cell r="G18">
-            <v>11.2</v>
-          </cell>
-          <cell r="H18">
-            <v>10.4</v>
-          </cell>
-          <cell r="I18">
-            <v>10.5</v>
-          </cell>
-          <cell r="J18">
-            <v>11.1</v>
-          </cell>
-          <cell r="K18">
-            <v>9.8000000000000007</v>
-          </cell>
-          <cell r="L18">
-            <v>11</v>
-          </cell>
-          <cell r="M18">
-            <v>11.1</v>
-          </cell>
-          <cell r="N18">
-            <v>11</v>
-          </cell>
-          <cell r="O18">
-            <v>11.6</v>
-          </cell>
-          <cell r="P18">
-            <v>12</v>
-          </cell>
-          <cell r="Q18">
-            <v>12.2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>All modes</v>
-          </cell>
-          <cell r="E19">
-            <v>67.8</v>
-          </cell>
-          <cell r="F19">
-            <v>69.7</v>
-          </cell>
-          <cell r="G19">
-            <v>68.400000000000006</v>
-          </cell>
-          <cell r="H19">
-            <v>62.2</v>
-          </cell>
-          <cell r="I19">
-            <v>60.5</v>
-          </cell>
-          <cell r="J19">
-            <v>67.5</v>
-          </cell>
-          <cell r="K19">
-            <v>64.400000000000006</v>
-          </cell>
-          <cell r="L19">
-            <v>63.5</v>
-          </cell>
-          <cell r="M19">
-            <v>64</v>
-          </cell>
-          <cell r="N19">
-            <v>60.2</v>
-          </cell>
-          <cell r="O19">
-            <v>60.21</v>
-          </cell>
-          <cell r="P19">
-            <v>61.921999999999997</v>
-          </cell>
-          <cell r="Q19">
-            <v>62.099999999999994</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Road 1</v>
-          </cell>
-          <cell r="E22">
-            <v>3.2</v>
-          </cell>
-          <cell r="F22">
-            <v>3.3</v>
-          </cell>
-          <cell r="G22">
-            <v>4.2</v>
-          </cell>
-          <cell r="H22">
-            <v>3.7</v>
-          </cell>
-          <cell r="I22">
-            <v>3.7</v>
-          </cell>
-          <cell r="J22">
-            <v>3.9</v>
-          </cell>
-          <cell r="K22">
-            <v>4</v>
-          </cell>
-          <cell r="L22">
-            <v>4.2</v>
-          </cell>
-          <cell r="M22">
-            <v>3.7</v>
-          </cell>
-          <cell r="N22">
-            <v>3.5</v>
-          </cell>
-          <cell r="O22">
-            <v>3.1</v>
-          </cell>
-          <cell r="P22">
-            <v>2.9</v>
-          </cell>
-          <cell r="Q22">
-            <v>2.7</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v xml:space="preserve">Rail </v>
-          </cell>
-          <cell r="E23">
-            <v>5.9</v>
-          </cell>
-          <cell r="F23">
-            <v>1.6</v>
-          </cell>
-          <cell r="G23">
-            <v>4.0999999999999996</v>
-          </cell>
-          <cell r="H23">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="I23">
-            <v>4.7</v>
-          </cell>
-          <cell r="J23">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="K23">
-            <v>4.8</v>
-          </cell>
-          <cell r="L23">
-            <v>5</v>
-          </cell>
-          <cell r="M23">
-            <v>5</v>
-          </cell>
-          <cell r="N23">
-            <v>5.4</v>
-          </cell>
-          <cell r="O23">
-            <v>3.9449999999999998</v>
-          </cell>
-          <cell r="P23">
-            <v>3.2719999999999998</v>
-          </cell>
-          <cell r="Q23">
-            <v>3.1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v xml:space="preserve">Water </v>
-          </cell>
-          <cell r="E24">
-            <v>3.8</v>
-          </cell>
-          <cell r="F24">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="G24">
-            <v>3.1</v>
-          </cell>
-          <cell r="H24">
-            <v>3.7</v>
-          </cell>
-          <cell r="I24">
-            <v>2.9</v>
-          </cell>
-          <cell r="J24">
-            <v>2.9</v>
-          </cell>
-          <cell r="K24">
-            <v>2.6</v>
-          </cell>
-          <cell r="L24">
-            <v>1.4</v>
-          </cell>
-          <cell r="M24">
-            <v>1.8</v>
-          </cell>
-          <cell r="N24">
-            <v>1.8</v>
-          </cell>
-          <cell r="O24">
-            <v>1.5</v>
-          </cell>
-          <cell r="P24">
-            <v>1.4</v>
-          </cell>
-          <cell r="Q24">
-            <v>1.8</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>All modes</v>
-          </cell>
-          <cell r="E25">
-            <v>12.900000000000002</v>
-          </cell>
-          <cell r="F25">
-            <v>6</v>
-          </cell>
-          <cell r="G25">
-            <v>11.4</v>
-          </cell>
-          <cell r="H25">
-            <v>12.5</v>
-          </cell>
-          <cell r="I25">
-            <v>11.3</v>
-          </cell>
-          <cell r="J25">
-            <v>11.4</v>
-          </cell>
-          <cell r="K25">
-            <v>11.4</v>
-          </cell>
-          <cell r="L25">
-            <v>10.6</v>
-          </cell>
-          <cell r="M25">
-            <v>10.5</v>
-          </cell>
-          <cell r="N25">
-            <v>10.700000000000001</v>
-          </cell>
-          <cell r="O25">
-            <v>8.5449999999999999</v>
-          </cell>
-          <cell r="P25">
-            <v>7.5719999999999992</v>
-          </cell>
-          <cell r="Q25">
-            <v>7.6000000000000005</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Road 1</v>
-          </cell>
-          <cell r="E28">
-            <v>88.5</v>
-          </cell>
-          <cell r="F28">
-            <v>93.1</v>
-          </cell>
-          <cell r="G28">
-            <v>94.7</v>
-          </cell>
-          <cell r="H28">
-            <v>98</v>
-          </cell>
-          <cell r="I28">
-            <v>105.5</v>
-          </cell>
-          <cell r="J28">
-            <v>121.4</v>
-          </cell>
-          <cell r="K28">
-            <v>129.30000000000001</v>
-          </cell>
-          <cell r="L28">
-            <v>127.2</v>
-          </cell>
-          <cell r="M28">
-            <v>121.4</v>
-          </cell>
-          <cell r="N28">
-            <v>118.5</v>
-          </cell>
-          <cell r="O28">
-            <v>126.4</v>
-          </cell>
-          <cell r="P28">
-            <v>135.69999999999999</v>
-          </cell>
-          <cell r="Q28">
-            <v>141.19999999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v xml:space="preserve">Rail </v>
-          </cell>
-          <cell r="E29">
-            <v>8.9</v>
-          </cell>
-          <cell r="F29">
-            <v>8.9</v>
-          </cell>
-          <cell r="G29">
-            <v>9.1999999999999993</v>
-          </cell>
-          <cell r="H29">
-            <v>9.4</v>
-          </cell>
-          <cell r="I29">
-            <v>10.6</v>
-          </cell>
-          <cell r="J29">
-            <v>11.4</v>
-          </cell>
-          <cell r="K29">
-            <v>10.3</v>
-          </cell>
-          <cell r="L29">
-            <v>8.6999999999999993</v>
-          </cell>
-          <cell r="M29">
-            <v>8.3000000000000007</v>
-          </cell>
-          <cell r="N29">
-            <v>8.1</v>
-          </cell>
-          <cell r="O29">
-            <v>7.91</v>
-          </cell>
-          <cell r="P29">
-            <v>7.8839999999999995</v>
-          </cell>
-          <cell r="Q29">
-            <v>8.5</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v xml:space="preserve">Water </v>
-          </cell>
-          <cell r="E30">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="F30">
-            <v>5.5</v>
-          </cell>
-          <cell r="G30">
-            <v>3.6</v>
-          </cell>
-          <cell r="H30">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="I30">
-            <v>7.3</v>
-          </cell>
-          <cell r="J30">
-            <v>7.1</v>
-          </cell>
-          <cell r="K30">
-            <v>7.4</v>
-          </cell>
-          <cell r="L30">
-            <v>8.6999999999999993</v>
-          </cell>
-          <cell r="M30">
-            <v>9.9</v>
-          </cell>
-          <cell r="N30">
-            <v>10.4</v>
-          </cell>
-          <cell r="O30">
-            <v>8</v>
-          </cell>
-          <cell r="P30">
-            <v>7.8</v>
-          </cell>
-          <cell r="Q30">
-            <v>8.3000000000000007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>All modes</v>
-          </cell>
-          <cell r="E31">
-            <v>102.5</v>
-          </cell>
-          <cell r="F31">
-            <v>107.5</v>
-          </cell>
-          <cell r="G31">
-            <v>107.5</v>
-          </cell>
-          <cell r="H31">
-            <v>112.5</v>
-          </cell>
-          <cell r="I31">
-            <v>123.39999999999999</v>
-          </cell>
-          <cell r="J31">
-            <v>139.9</v>
-          </cell>
-          <cell r="K31">
-            <v>147.00000000000003</v>
-          </cell>
-          <cell r="L31">
-            <v>144.6</v>
-          </cell>
-          <cell r="M31">
-            <v>139.60000000000002</v>
-          </cell>
-          <cell r="N31">
-            <v>137</v>
-          </cell>
-          <cell r="O31">
-            <v>142.31</v>
-          </cell>
-          <cell r="P31">
-            <v>151.38399999999999</v>
-          </cell>
-          <cell r="Q31">
-            <v>158</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Road 1</v>
-          </cell>
-          <cell r="E34">
-            <v>95.9</v>
-          </cell>
-          <cell r="F34">
-            <v>100.39999999999999</v>
-          </cell>
-          <cell r="G34">
-            <v>103.2</v>
-          </cell>
-          <cell r="H34">
-            <v>105.4</v>
-          </cell>
-          <cell r="I34">
-            <v>113.3</v>
-          </cell>
-          <cell r="J34">
-            <v>130.20000000000002</v>
-          </cell>
-          <cell r="K34">
-            <v>137.80000000000001</v>
-          </cell>
-          <cell r="L34">
-            <v>136.30000000000001</v>
-          </cell>
-          <cell r="M34">
-            <v>130</v>
-          </cell>
-          <cell r="N34">
-            <v>126.5</v>
-          </cell>
-          <cell r="O34">
-            <v>134.5</v>
-          </cell>
-          <cell r="P34">
-            <v>143.69999999999999</v>
-          </cell>
-          <cell r="Q34">
-            <v>149.6</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v xml:space="preserve">Rail </v>
-          </cell>
-          <cell r="E35">
-            <v>17.100000000000001</v>
-          </cell>
-          <cell r="F35">
-            <v>12.700000000000001</v>
-          </cell>
-          <cell r="G35">
-            <v>15.299999999999999</v>
-          </cell>
-          <cell r="H35">
-            <v>16.600000000000001</v>
-          </cell>
-          <cell r="I35">
-            <v>17.3</v>
-          </cell>
-          <cell r="J35">
-            <v>18.2</v>
-          </cell>
-          <cell r="K35">
-            <v>17.3</v>
-          </cell>
-          <cell r="L35">
-            <v>15.799999999999999</v>
-          </cell>
-          <cell r="M35">
-            <v>15.3</v>
-          </cell>
-          <cell r="N35">
-            <v>15.5</v>
-          </cell>
-          <cell r="O35">
-            <v>13.765000000000001</v>
-          </cell>
-          <cell r="P35">
-            <v>12.977999999999998</v>
-          </cell>
-          <cell r="Q35">
-            <v>13.3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v xml:space="preserve">Water </v>
-          </cell>
-          <cell r="E36">
-            <v>60.3</v>
-          </cell>
-          <cell r="F36">
-            <v>59.7</v>
-          </cell>
-          <cell r="G36">
-            <v>57.6</v>
-          </cell>
-          <cell r="H36">
-            <v>54.800000000000004</v>
-          </cell>
-          <cell r="I36">
-            <v>54.099999999999994</v>
-          </cell>
-          <cell r="J36">
-            <v>59.3</v>
-          </cell>
-          <cell r="K36">
-            <v>57.9</v>
-          </cell>
-          <cell r="L36">
-            <v>55.7</v>
-          </cell>
-          <cell r="M36">
-            <v>57.699999999999996</v>
-          </cell>
-          <cell r="N36">
-            <v>54.900000000000006</v>
-          </cell>
-          <cell r="O36">
-            <v>51.2</v>
-          </cell>
-          <cell r="P36">
-            <v>52.2</v>
-          </cell>
-          <cell r="Q36">
-            <v>52.6</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v xml:space="preserve">Pipeline </v>
-          </cell>
-          <cell r="E37">
-            <v>9.9</v>
-          </cell>
-          <cell r="F37">
-            <v>10.4</v>
-          </cell>
-          <cell r="G37">
-            <v>11.2</v>
-          </cell>
-          <cell r="H37">
-            <v>10.4</v>
-          </cell>
-          <cell r="I37">
-            <v>10.5</v>
-          </cell>
-          <cell r="J37">
-            <v>11.1</v>
-          </cell>
-          <cell r="K37">
-            <v>9.8000000000000007</v>
-          </cell>
-          <cell r="L37">
-            <v>11</v>
-          </cell>
-          <cell r="M37">
-            <v>11.1</v>
-          </cell>
-          <cell r="N37">
-            <v>11</v>
-          </cell>
-          <cell r="O37">
-            <v>11.6</v>
-          </cell>
-          <cell r="P37">
-            <v>12</v>
-          </cell>
-          <cell r="Q37">
-            <v>12.2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v xml:space="preserve">All modes </v>
-          </cell>
-          <cell r="E38">
-            <v>183.20000000000002</v>
-          </cell>
-          <cell r="F38">
-            <v>183.20000000000002</v>
-          </cell>
-          <cell r="G38">
-            <v>187.29999999999998</v>
-          </cell>
-          <cell r="H38">
-            <v>187.20000000000002</v>
-          </cell>
-          <cell r="I38">
-            <v>195.2</v>
-          </cell>
-          <cell r="J38">
-            <v>218.79999999999998</v>
-          </cell>
-          <cell r="K38">
-            <v>222.80000000000004</v>
-          </cell>
-          <cell r="L38">
-            <v>218.8</v>
-          </cell>
-          <cell r="M38">
-            <v>214.1</v>
-          </cell>
-          <cell r="N38">
-            <v>207.9</v>
-          </cell>
-          <cell r="O38">
-            <v>211.06499999999997</v>
-          </cell>
-          <cell r="P38">
-            <v>220.87799999999999</v>
-          </cell>
-          <cell r="Q38">
-            <v>227.7</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>Road 1</v>
-          </cell>
-          <cell r="E41">
-            <v>52.3471615720524</v>
-          </cell>
-          <cell r="F41">
-            <v>54.803493449781648</v>
-          </cell>
-          <cell r="G41">
-            <v>55.098772023491726</v>
-          </cell>
-          <cell r="H41">
-            <v>56.303418803418801</v>
-          </cell>
-          <cell r="I41">
-            <v>58.043032786885249</v>
-          </cell>
-          <cell r="J41">
-            <v>59.506398537477153</v>
-          </cell>
-          <cell r="K41">
-            <v>61.849192100538595</v>
-          </cell>
-          <cell r="L41">
-            <v>62.294332723948806</v>
-          </cell>
-          <cell r="M41">
-            <v>60.719290051377861</v>
-          </cell>
-          <cell r="N41">
-            <v>60.846560846560848</v>
-          </cell>
-          <cell r="O41">
-            <v>63.724445076161388</v>
-          </cell>
-          <cell r="P41">
-            <v>65.058539103034249</v>
-          </cell>
-          <cell r="Q41">
-            <v>65.700483091787447</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v xml:space="preserve">Rail </v>
-          </cell>
-          <cell r="E42">
-            <v>9.3340611353711793</v>
-          </cell>
-          <cell r="F42">
-            <v>6.9323144104803491</v>
-          </cell>
-          <cell r="G42">
-            <v>8.1687132941804581</v>
-          </cell>
-          <cell r="H42">
-            <v>8.867521367521368</v>
-          </cell>
-          <cell r="I42">
-            <v>8.8627049180327884</v>
-          </cell>
-          <cell r="J42">
-            <v>8.3180987202925056</v>
-          </cell>
-          <cell r="K42">
-            <v>7.7648114901256724</v>
-          </cell>
-          <cell r="L42">
-            <v>7.221206581352833</v>
-          </cell>
-          <cell r="M42">
-            <v>7.1461933675852407</v>
-          </cell>
-          <cell r="N42">
-            <v>7.4555074555074556</v>
-          </cell>
-          <cell r="O42">
-            <v>6.5216876317722035</v>
-          </cell>
-          <cell r="P42">
-            <v>5.8756417569880197</v>
-          </cell>
-          <cell r="Q42">
-            <v>5.8410188844971467</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v xml:space="preserve">Water </v>
-          </cell>
-          <cell r="E43">
-            <v>32.914847161572048</v>
-          </cell>
-          <cell r="F43">
-            <v>32.587336244541483</v>
-          </cell>
-          <cell r="G43">
-            <v>30.752802989855848</v>
-          </cell>
-          <cell r="H43">
-            <v>29.273504273504276</v>
-          </cell>
-          <cell r="I43">
-            <v>27.715163934426229</v>
-          </cell>
-          <cell r="J43">
-            <v>27.102376599634368</v>
-          </cell>
-          <cell r="K43">
-            <v>25.987432675044879</v>
-          </cell>
-          <cell r="L43">
-            <v>25.457038391224863</v>
-          </cell>
-          <cell r="M43">
-            <v>26.950023353573094</v>
-          </cell>
-          <cell r="N43">
-            <v>26.406926406926406</v>
-          </cell>
-          <cell r="O43">
-            <v>24.257930021557346</v>
-          </cell>
-          <cell r="P43">
-            <v>23.632955749327685</v>
-          </cell>
-          <cell r="Q43">
-            <v>23.100570926657884</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>Pipeline</v>
-          </cell>
-          <cell r="E44">
-            <v>5.4039301310043664</v>
-          </cell>
-          <cell r="F44">
-            <v>5.676855895196506</v>
-          </cell>
-          <cell r="G44">
-            <v>5.9797116924719704</v>
-          </cell>
-          <cell r="H44">
-            <v>5.5555555555555554</v>
-          </cell>
-          <cell r="I44">
-            <v>5.3790983606557381</v>
-          </cell>
-          <cell r="J44">
-            <v>5.0731261425959779</v>
-          </cell>
-          <cell r="K44">
-            <v>4.3985637342908435</v>
-          </cell>
-          <cell r="L44">
-            <v>5.0274223034734913</v>
-          </cell>
-          <cell r="M44">
-            <v>5.1844932274638014</v>
-          </cell>
-          <cell r="N44">
-            <v>5.2910052910052912</v>
-          </cell>
-          <cell r="O44">
-            <v>5.495937270509085</v>
-          </cell>
-          <cell r="P44">
-            <v>5.4328633906500423</v>
-          </cell>
-          <cell r="Q44">
-            <v>5.3579270970575319</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3358,35 +3011,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:Z43"/>
+  <dimension ref="B11:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
+      <c r="E13" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3394,17 +3046,17 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3412,7 +3064,7 @@
     </row>
     <row r="17" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3424,7 +3076,7 @@
     </row>
     <row r="19" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3440,114 +3092,131 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
+    <row r="20" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+    </row>
     <row r="21" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>7</v>
+      <c r="B21" s="17" t="str">
+        <f>HYPERLINK("[TRA2503]TRA2503a!A1","TRA2503a")</f>
+        <v>TRA2503a</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
+      <c r="C21" s="5"/>
+      <c r="E21" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>9</v>
+      <c r="B22" s="17" t="str">
+        <f>HYPERLINK("[TRA2503]TRA2503b!A1","TRA2503b")</f>
+        <v>TRA2503b</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
+      <c r="C22" s="5"/>
+      <c r="E22" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
-        <v>11</v>
+      <c r="B23" s="17" t="str">
+        <f>HYPERLINK("[TRA2503]TRA2503c!A1","TRA2503c")</f>
+        <v>TRA2503c</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
+      <c r="C23" s="5"/>
+      <c r="E23" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>13</v>
+      <c r="B24" s="17" t="str">
+        <f t="shared" ref="B22:B27" si="0">HYPERLINK("[TRA2503]TRA2503a!A1","TRA2503a")</f>
+        <v>TRA2503a</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
+      <c r="C24" s="5"/>
+      <c r="E24" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>15</v>
+      <c r="B25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA2503a</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
+      <c r="C25" s="5"/>
+      <c r="E25" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>17</v>
+      <c r="B26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA2503a</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
+      <c r="C26" s="5"/>
+      <c r="E26" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
-        <v>19</v>
+      <c r="B27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA2503a</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>20</v>
+      <c r="C27" s="5"/>
+      <c r="E27" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -3556,18 +3225,18 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
-        <v>21</v>
+      <c r="B29" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -3598,23 +3267,23 @@
     </row>
     <row r="31" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>23</v>
+      <c r="E31" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="16"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -3625,61 +3294,61 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>25</v>
+      <c r="E32" s="20" t="s">
+        <v>9</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
     </row>
-    <row r="33" spans="2:26" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
     </row>
     <row r="34" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
@@ -3691,88 +3360,70 @@
     </row>
     <row r="35" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="37" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
-        <v>28</v>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
-        <v>29</v>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16" t="s">
-        <v>30</v>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16" t="s">
-        <v>31</v>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>15</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="20" t="s">
-        <v>32</v>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="M38" s="16" t="s">
-        <v>33</v>
+      <c r="M38" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
     </row>
     <row r="39" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="2:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="E43" s="5"/>
+    <row r="40" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3780,18 +3431,14 @@
     <mergeCell ref="E32:O33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B21" location="TRA2503a!A1" display="TRA2503a"/>
-    <hyperlink ref="B22" location="TRA2503b!A1" display="TRA2503b"/>
-    <hyperlink ref="B23" location="TRA2503c!A1" display="TRA2503c"/>
-    <hyperlink ref="B24" location="TRA2503d!A1" display="TRA2503d"/>
-    <hyperlink ref="B25" location="TRA2503e!A1" display="TRA2503e"/>
-    <hyperlink ref="B26" location="TRA2503f!A1" display="TRA2503f"/>
-    <hyperlink ref="B27" location="TRA2503g!A1" display="TRA2503g"/>
+    <hyperlink ref="B21" location="TRA2501a!A1" display="TRA2501a"/>
     <hyperlink ref="E31" r:id="rId1"/>
     <hyperlink ref="E32" r:id="rId2"/>
     <hyperlink ref="M38" r:id="rId3"/>
+    <hyperlink ref="B22:B27" location="TRA2501a!A1" display="TRA2501a"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" scale="64" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/inst/TRA2503_template.xlsx
+++ b/inst/TRA2503_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://departmentfortransportuk-my.sharepoint.com/personal/luke_shaw_dft_gov_uk/Documents/My Documents/1_Keep Files/TRA25 Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TSTATS\TS_GROUPS\COMM\06 Development Projects\4_Traffic publications\2018 RAP project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Source:</t>
   </si>
@@ -112,28 +112,19 @@
     <t>Next update:</t>
   </si>
   <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1994 - not seasonally adjusted</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1994 - rolling annual index numbers (not seasonally adjusted)</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1994 - percentage change on previous year (not seasonally adjusted)</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1994 - seasonally adjusted</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1994 - not seasonally adjusted</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1994 - seasonally adjusted index numbers</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1994 - percentage change on same quarter in previous year (seasonally adjusted figures)</t>
-  </si>
-  <si>
     <t>roadtraff.stats@dft.gov.uk</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, quarterly from 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1994 - percentage change on previous year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1994 - rolling annual index numbers </t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle miles) by road class in Great Britain, rolling annual totals from 1994</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:Z40"/>
+  <dimension ref="B11:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1711,7 @@
       </c>
       <c r="C21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="10"/>
@@ -1735,7 +1726,7 @@
       </c>
       <c r="C22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="10"/>
@@ -1760,12 +1751,12 @@
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="str">
-        <f>HYPERLINK("#TRA2503d!A1","TRA2503d")</f>
-        <v>TRA2503d</v>
+        <f>HYPERLINK("#TRA2503e!A1","TRA2503e")</f>
+        <v>TRA2503e</v>
       </c>
       <c r="C24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1781,277 +1772,218 @@
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="str">
-        <f>HYPERLINK("#TRA2503e!A1","TRA2503e")</f>
-        <v>TRA2503e</v>
-      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="str">
-        <f>HYPERLINK("#TRA2503f!A1","TRA2503f")</f>
-        <v>TRA2503f</v>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="str">
-        <f>HYPERLINK("#TRA2503g!A1","TRA2503g")</f>
-        <v>TRA2503g</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-    </row>
-    <row r="33" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-    </row>
-    <row r="34" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="I34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-    </row>
-    <row r="37" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="15"/>
-    </row>
-    <row r="38" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="13" t="s">
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="14"/>
+      <c r="M35" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E31:P31"/>
-    <mergeCell ref="E32:O33"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="E29:O30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1"/>
-    <hyperlink ref="E32" r:id="rId2"/>
-    <hyperlink ref="M38" r:id="rId3" display="roadtraff.stats@dft.gsi.gov.uk"/>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="M35" r:id="rId3" display="roadtraff.stats@dft.gsi.gov.uk"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="64" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
